--- a/DUOL.xlsx
+++ b/DUOL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlshe\Documents\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E92021-9474-4722-8EA9-1A247D2AEEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722C6AD1-454B-41DD-BA18-493F61C73E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40380" yWindow="0" windowWidth="17325" windowHeight="15585" activeTab="1" xr2:uid="{F8F0E135-B0EA-4157-A45D-5F4FA8BEF9ED}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F8F0E135-B0EA-4157-A45D-5F4FA8BEF9ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -257,7 +257,7 @@
     <t>Tax Rate</t>
   </si>
   <si>
-    <t>beta data unavail, hasn't been public long enough. 2/26/23</t>
+    <t>beta data unavailable, hasn't been public long enough. 2/26/23</t>
   </si>
 </sst>
 </file>
@@ -581,10 +581,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1421,7 +1417,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1643,35 +1639,35 @@
         <v>48</v>
       </c>
       <c r="G6" s="25">
-        <f>G3/C3-1</f>
+        <f t="shared" ref="G6:N7" si="0">G3/C3-1</f>
         <v>0.39705882352941191</v>
       </c>
       <c r="H6" s="25">
-        <f>H3/D3-1</f>
+        <f t="shared" si="0"/>
         <v>1.1111111111111072E-2</v>
       </c>
       <c r="I6" s="25">
-        <f>I3/E3-1</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
       <c r="J6" s="25">
-        <f>J3/F3-1</f>
+        <f t="shared" si="0"/>
         <v>0.20238095238095233</v>
       </c>
       <c r="K6" s="25">
-        <f>K3/G3-1</f>
+        <f t="shared" si="0"/>
         <v>0.31578947368421062</v>
       </c>
       <c r="L6" s="25">
-        <f>L3/H3-1</f>
+        <f t="shared" si="0"/>
         <v>0.4505494505494505</v>
       </c>
       <c r="M6" s="25">
-        <f>M3/I3-1</f>
+        <f t="shared" si="0"/>
         <v>0.52040816326530615</v>
       </c>
       <c r="N6" s="25">
-        <f>N3/J3-1</f>
+        <f t="shared" si="0"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P6" s="13"/>
@@ -1689,35 +1685,35 @@
         <v>49</v>
       </c>
       <c r="G7" s="25">
-        <f>G4/C4-1</f>
+        <f t="shared" si="0"/>
         <v>0.63636363636363624</v>
       </c>
       <c r="H7" s="25">
-        <f>H4/D4-1</f>
+        <f t="shared" si="0"/>
         <v>0.46153846153846145</v>
       </c>
       <c r="I7" s="25">
-        <f>I4/E4-1</f>
+        <f t="shared" si="0"/>
         <v>0.46666666666666679</v>
       </c>
       <c r="J7" s="25">
-        <f>J4/F4-1</f>
+        <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
       <c r="K7" s="25">
-        <f>K4/G4-1</f>
+        <f t="shared" si="0"/>
         <v>0.61111111111111094</v>
       </c>
       <c r="L7" s="25">
-        <f>L4/H4-1</f>
+        <f t="shared" si="0"/>
         <v>0.73684210526315796</v>
       </c>
       <c r="M7" s="25">
-        <f>M4/I4-1</f>
+        <f t="shared" si="0"/>
         <v>0.68181818181818166</v>
       </c>
       <c r="N7" s="25">
-        <f>N4/J4-1</f>
+        <f t="shared" si="0"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="T7" s="25">
@@ -1853,43 +1849,43 @@
         <v>22</v>
       </c>
       <c r="C11" s="15">
-        <f t="shared" ref="C11:L11" si="0">C9-C10</f>
+        <f t="shared" ref="C11:L11" si="1">C9-C10</f>
         <v>19.897999999999996</v>
       </c>
       <c r="D11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.202000000000005</v>
       </c>
       <c r="E11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.204000000000001</v>
       </c>
       <c r="F11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.405000000000001</v>
       </c>
       <c r="G11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40.341000000000001</v>
       </c>
       <c r="H11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.665999999999997</v>
       </c>
       <c r="I11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.516999999999996</v>
       </c>
       <c r="J11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53.061999999999998</v>
       </c>
       <c r="K11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.730000000000004</v>
       </c>
       <c r="L11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.516999999999996</v>
       </c>
       <c r="M11" s="15">
@@ -1901,39 +1897,39 @@
         <v>74.286799999999985</v>
       </c>
       <c r="S11" s="15">
-        <f t="shared" ref="S11:AA11" si="1">S9-S10</f>
+        <f t="shared" ref="S11:AA11" si="2">S9-S10</f>
         <v>115.709</v>
       </c>
       <c r="T11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>181.58600000000001</v>
       </c>
       <c r="U11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>268.29679999999996</v>
       </c>
       <c r="V11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1979,15 +1975,15 @@
         <v>39.024699999999996</v>
       </c>
       <c r="S12" s="7">
-        <f t="shared" ref="S12:S14" si="2">SUM(C12:F12)</f>
+        <f t="shared" ref="S12:S14" si="3">SUM(C12:F12)</f>
         <v>53.024000000000001</v>
       </c>
       <c r="T12" s="7">
-        <f t="shared" ref="T12:T14" si="3">SUM(G12:J12)</f>
+        <f t="shared" ref="T12:T14" si="4">SUM(G12:J12)</f>
         <v>103.833</v>
       </c>
       <c r="U12" s="7">
-        <f t="shared" ref="U12:U14" si="4">SUM(K12:N12)</f>
+        <f t="shared" ref="U12:U14" si="5">SUM(K12:N12)</f>
         <v>144.99869999999999</v>
       </c>
     </row>
@@ -2033,15 +2029,15 @@
         <v>18.8643</v>
       </c>
       <c r="S13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.982999999999997</v>
       </c>
       <c r="T13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59.17</v>
       </c>
       <c r="U13" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.802300000000002</v>
       </c>
     </row>
@@ -2087,15 +2083,15 @@
         <v>33.731099999999998</v>
       </c>
       <c r="S14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43.712999999999994</v>
       </c>
       <c r="T14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78.59</v>
       </c>
       <c r="U14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>120.87209999999999</v>
       </c>
     </row>
@@ -2105,43 +2101,43 @@
         <v>14</v>
       </c>
       <c r="C15" s="15">
-        <f t="shared" ref="C15:L15" si="5">SUM(C12:C14)</f>
+        <f t="shared" ref="C15:L15" si="6">SUM(C12:C14)</f>
         <v>22.353000000000002</v>
       </c>
       <c r="D15" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28.12</v>
       </c>
       <c r="E15" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35.271000000000001</v>
       </c>
       <c r="F15" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45.975999999999999</v>
       </c>
       <c r="G15" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.754999999999995</v>
       </c>
       <c r="H15" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43.144000000000005</v>
       </c>
       <c r="I15" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>74.216999999999999</v>
       </c>
       <c r="J15" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70.477000000000004</v>
       </c>
       <c r="K15" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.576999999999998</v>
       </c>
       <c r="L15" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>79.551000000000002</v>
       </c>
       <c r="M15" s="15">
@@ -2153,39 +2149,39 @@
         <v>91.620099999999994</v>
       </c>
       <c r="S15" s="15">
-        <f t="shared" ref="S15:AA15" si="6">SUM(S12:S14)</f>
+        <f t="shared" ref="S15:AA15" si="7">SUM(S12:S14)</f>
         <v>131.72</v>
       </c>
       <c r="T15" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>241.59299999999999</v>
       </c>
       <c r="U15" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>332.67309999999998</v>
       </c>
       <c r="V15" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W15" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X15" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y15" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z15" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA15" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2195,43 +2191,43 @@
         <v>23</v>
       </c>
       <c r="C16" s="15">
-        <f t="shared" ref="C16:L16" si="7">C11-C15</f>
+        <f t="shared" ref="C16:L16" si="8">C11-C15</f>
         <v>-2.4550000000000054</v>
       </c>
       <c r="D16" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.2000000000004292E-2</v>
       </c>
       <c r="E16" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3.0670000000000002</v>
       </c>
       <c r="F16" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-10.570999999999998</v>
       </c>
       <c r="G16" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-13.413999999999994</v>
       </c>
       <c r="H16" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.47800000000000864</v>
       </c>
       <c r="I16" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-28.700000000000003</v>
       </c>
       <c r="J16" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-17.415000000000006</v>
       </c>
       <c r="K16" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-11.846999999999994</v>
       </c>
       <c r="L16" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-15.034000000000006</v>
       </c>
       <c r="M16" s="15">
@@ -2243,39 +2239,39 @@
         <v>-17.333300000000008</v>
       </c>
       <c r="S16" s="15">
-        <f t="shared" ref="S16:AA16" si="8">S11-S15</f>
+        <f t="shared" ref="S16:AA16" si="9">S11-S15</f>
         <v>-16.010999999999996</v>
       </c>
       <c r="T16" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-60.006999999999977</v>
       </c>
       <c r="U16" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-64.376300000000015</v>
       </c>
       <c r="V16" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W16" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X16" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y16" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z16" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA16" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2338,43 +2334,43 @@
         <v>16</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" ref="C18:L18" si="9">C16+C17</f>
+        <f t="shared" ref="C18:L18" si="10">C16+C17</f>
         <v>-2.2220000000000053</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.1000000000004292E-2</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3.153</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.383999999999999</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-13.454999999999995</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.17500000000000865</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-28.919000000000004</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-17.409000000000006</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-12.125999999999994</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-14.904000000000005</v>
       </c>
       <c r="M18" s="7">
@@ -2386,39 +2382,39 @@
         <v>-17.324900000000007</v>
       </c>
       <c r="S18" s="7">
-        <f t="shared" ref="S18:AA18" si="10">S16+S17</f>
+        <f t="shared" ref="S18:AA18" si="11">S16+S17</f>
         <v>-15.707999999999995</v>
       </c>
       <c r="T18" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-59.957999999999977</v>
       </c>
       <c r="U18" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-62.746900000000018</v>
       </c>
       <c r="V18" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W18" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X18" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y18" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z18" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA18" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2482,43 +2478,43 @@
         <v>18</v>
       </c>
       <c r="C20" s="15">
-        <f t="shared" ref="C20:L20" si="11">C18-C19</f>
+        <f t="shared" ref="C20:L20" si="12">C18-C19</f>
         <v>-2.2330000000000054</v>
       </c>
       <c r="D20" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.0000000000004296E-2</v>
       </c>
       <c r="E20" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3.1760000000000002</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-10.406999999999998</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-13.471999999999994</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.17600000000000865</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-28.970000000000002</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-17.517000000000007</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-12.153999999999995</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-15.045000000000005</v>
       </c>
       <c r="M20" s="15">
@@ -2530,39 +2526,39 @@
         <v>-17.324900000000007</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" ref="S20:AA20" si="12">S18-S19</f>
+        <f t="shared" ref="S20:AA20" si="13">S18-S19</f>
         <v>-15.775999999999994</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-60.134999999999977</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-62.968900000000019</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X20" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y20" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z20" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA20" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2619,27 +2615,27 @@
         <v>20</v>
       </c>
       <c r="G22" s="13">
-        <f t="shared" ref="G22:L22" si="13">G20/G21</f>
+        <f t="shared" ref="G22:L22" si="14">G20/G21</f>
         <v>-0.42110527631907957</v>
       </c>
       <c r="H22" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-4.7035724461200745E-3</v>
       </c>
       <c r="I22" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.77310417283844612</v>
       </c>
       <c r="J22" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.45351111113872705</v>
       </c>
       <c r="K22" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.31035704670730541</v>
       </c>
       <c r="L22" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.37957790634060873</v>
       </c>
       <c r="M22" s="13">
@@ -2651,39 +2647,39 @@
         <v>-0.42717874877288364</v>
       </c>
       <c r="S22" s="7" t="e">
-        <f t="shared" ref="S22:AA22" si="14">S20/S21</f>
+        <f t="shared" ref="S22:AA22" si="15">S20/S21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T22" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1.5568813534467849</v>
       </c>
       <c r="U22" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1.5526194040718753</v>
       </c>
       <c r="V22" s="7" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W22" s="7" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X22" s="7" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y22" s="7" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z22" s="7" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA22" s="7" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2692,27 +2688,27 @@
         <v>50</v>
       </c>
       <c r="G24" s="25">
-        <f t="shared" ref="G24:L24" si="15">G9/C9-1</f>
+        <f t="shared" ref="G24:L24" si="16">G9/C9-1</f>
         <v>0.96926579396698931</v>
       </c>
       <c r="H24" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.46967084051885721</v>
       </c>
       <c r="I24" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.40370819997792728</v>
       </c>
       <c r="J24" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.51267920775669173</v>
       </c>
       <c r="K24" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.46712427745664731</v>
       </c>
       <c r="L24" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.50308657721544825</v>
       </c>
       <c r="M24" s="25">
@@ -2720,7 +2716,7 @@
         <v>0.51057473071782367</v>
       </c>
       <c r="N24" s="25">
-        <f t="shared" ref="N24" si="16">N9/J9-1</f>
+        <f t="shared" ref="N24" si="17">N9/J9-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="T24" s="25">
@@ -2737,27 +2733,27 @@
         <v>51</v>
       </c>
       <c r="G25" s="25">
-        <f t="shared" ref="G25:L25" si="17">(G11/C11)-1</f>
+        <f t="shared" ref="G25:L25" si="18">(G11/C11)-1</f>
         <v>1.02738968740577</v>
       </c>
       <c r="H25" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.51287142755832882</v>
       </c>
       <c r="I25" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.41339585144702506</v>
       </c>
       <c r="J25" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.49871487078096299</v>
       </c>
       <c r="K25" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.4806276492898045</v>
       </c>
       <c r="L25" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.51214081470022976</v>
       </c>
       <c r="M25" s="25">
@@ -2765,7 +2761,7 @@
         <v>0.53268009754597201</v>
       </c>
       <c r="N25" s="25">
-        <f t="shared" ref="N25" si="18">(N11/J11)-1</f>
+        <f t="shared" ref="N25" si="19">(N11/J11)-1</f>
         <v>0.39999999999999969</v>
       </c>
       <c r="T25" s="25">
@@ -2782,27 +2778,27 @@
         <v>52</v>
       </c>
       <c r="G26" s="25">
-        <f t="shared" ref="G26:L26" si="19">G15/C15-1</f>
+        <f t="shared" ref="G26:L26" si="20">G15/C15-1</f>
         <v>1.4048226188878448</v>
       </c>
       <c r="H26" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.53428165007112383</v>
       </c>
       <c r="I26" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.1041932465765076</v>
       </c>
       <c r="J26" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.53290847398642782</v>
       </c>
       <c r="K26" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.33154125197656037</v>
       </c>
       <c r="L26" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.84384850732430916</v>
       </c>
       <c r="M26" s="25">
@@ -2810,7 +2806,7 @@
         <v>0.21164962205424653</v>
       </c>
       <c r="N26" s="25">
-        <f t="shared" ref="N26:N27" si="20">N15/J15-1</f>
+        <f t="shared" ref="N26:N27" si="21">N15/J15-1</f>
         <v>0.29999999999999982</v>
       </c>
       <c r="T26" s="25">
@@ -2827,27 +2823,27 @@
         <v>53</v>
       </c>
       <c r="G27" s="25">
-        <f t="shared" ref="G27:L27" si="21">G16/C16-1</f>
+        <f t="shared" ref="G27:L27" si="22">G16/C16-1</f>
         <v>4.4639511201629185</v>
       </c>
       <c r="H27" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-6.8292682926827268</v>
       </c>
       <c r="I27" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8.3576785132050873</v>
       </c>
       <c r="J27" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.64743165263456715</v>
       </c>
       <c r="K27" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.11681824958998066</v>
       </c>
       <c r="L27" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30.451882845187729</v>
       </c>
       <c r="M27" s="25">
@@ -2855,7 +2851,7 @@
         <v>-0.29749128919860612</v>
       </c>
       <c r="N27" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-4.6913580246912279E-3</v>
       </c>
       <c r="T27" s="25">
@@ -2872,27 +2868,27 @@
         <v>54</v>
       </c>
       <c r="G28" s="25">
-        <f t="shared" ref="G28:L28" si="22">G20/C20-1</f>
+        <f t="shared" ref="G28:L28" si="23">G20/C20-1</f>
         <v>5.0331392745185672</v>
       </c>
       <c r="H28" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-5.3999999999997437</v>
       </c>
       <c r="I28" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8.1215365239294712</v>
       </c>
       <c r="J28" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.68319400403574604</v>
       </c>
       <c r="K28" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-9.7832541567695941E-2</v>
       </c>
       <c r="L28" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>84.482954545450369</v>
       </c>
       <c r="M28" s="25">
@@ -2900,7 +2896,7 @@
         <v>-0.36330686917500843</v>
       </c>
       <c r="N28" s="25">
-        <f t="shared" ref="N28:N29" si="23">N20/J20-1</f>
+        <f t="shared" ref="N28:N29" si="24">N20/J20-1</f>
         <v>-1.0966489695724113E-2</v>
       </c>
       <c r="T28" s="25">
@@ -2933,7 +2929,7 @@
         <v>7.1984511443663024E-2</v>
       </c>
       <c r="N29" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="T29" s="25"/>
@@ -2947,27 +2943,27 @@
         <v>56</v>
       </c>
       <c r="G30" s="25">
-        <f t="shared" ref="G30:L30" si="24">G11/G9</f>
+        <f t="shared" ref="G30:L30" si="25">G11/G9</f>
         <v>0.72870303468208097</v>
       </c>
       <c r="H30" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.72557522575378808</v>
       </c>
       <c r="I30" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.71573236889692582</v>
       </c>
       <c r="J30" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.7267373380447586</v>
       </c>
       <c r="K30" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.73540999753755243</v>
       </c>
       <c r="L30" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.7299459190369515</v>
       </c>
       <c r="M30" s="25">
@@ -2975,7 +2971,7 @@
         <v>0.72620621454223711</v>
       </c>
       <c r="N30" s="25">
-        <f t="shared" ref="N30" si="25">N11/N9</f>
+        <f t="shared" ref="N30" si="26">N11/N9</f>
         <v>0.72673733804475849</v>
       </c>
       <c r="T30" s="25">
@@ -2992,27 +2988,27 @@
         <v>57</v>
       </c>
       <c r="G31" s="25">
-        <f t="shared" ref="G31:L31" si="26">G16/G9</f>
+        <f t="shared" ref="G31:L31" si="27">G16/G9</f>
         <v>-0.24230491329479759</v>
       </c>
       <c r="H31" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-8.1288369641006192E-3</v>
       </c>
       <c r="I31" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.4512933406714365</v>
       </c>
       <c r="J31" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.23851590106007078</v>
       </c>
       <c r="K31" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.14586308790938185</v>
       </c>
       <c r="L31" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.17009481139546995</v>
       </c>
       <c r="M31" s="25">
@@ -3020,7 +3016,7 @@
         <v>-0.2098787279446209</v>
       </c>
       <c r="N31" s="25">
-        <f t="shared" ref="N31" si="27">N16/N9</f>
+        <f t="shared" ref="N31" si="28">N16/N9</f>
         <v>-0.16956924112401156</v>
       </c>
       <c r="T31" s="25">
@@ -3037,27 +3033,27 @@
         <v>58</v>
       </c>
       <c r="G32" s="25">
-        <f t="shared" ref="G32:L32" si="28">G19/G18</f>
+        <f t="shared" ref="G32:L32" si="29">G19/G18</f>
         <v>-1.2634708286882205E-3</v>
       </c>
       <c r="H32" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-5.7142857142854324E-3</v>
       </c>
       <c r="I32" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.763546457346381E-3</v>
       </c>
       <c r="J32" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-6.2036877477166961E-3</v>
       </c>
       <c r="K32" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.3090879102754423E-3</v>
       </c>
       <c r="L32" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-9.4605475040257601E-3</v>
       </c>
       <c r="M32" s="25">
@@ -3065,7 +3061,7 @@
         <v>-2.8816876903001295E-3</v>
       </c>
       <c r="N32" s="25">
-        <f t="shared" ref="N32" si="29">N19/N18</f>
+        <f t="shared" ref="N32" si="30">N19/N18</f>
         <v>0</v>
       </c>
       <c r="T32" s="25">
